--- a/results/exp5.xlsx
+++ b/results/exp5.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Fragkiadakis\Workspace\liver-baseline-registration\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EA6484-B46E-48D7-8EB2-831D5C133970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F590CF-DB19-43DA-8E1F-781068FDB7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2475" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="4185" windowWidth="16515" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liver" sheetId="1" r:id="rId1"/>
     <sheet name="tumor" sheetId="2" r:id="rId2"/>
-    <sheet name="liver_bb" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Initial dice</t>
   </si>
@@ -142,7 +141,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,14 +482,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" activeCellId="1" sqref="C14 D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -510,13 +510,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.34548000000000001</v>
+        <v>0.32956999999999997</v>
       </c>
       <c r="C2">
-        <v>0.85299999999999998</v>
+        <v>0.84455999999999998</v>
       </c>
       <c r="D2">
-        <v>0.94854000000000005</v>
+        <v>0.95071000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,13 +524,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2.8979999999999999E-2</v>
+        <v>2.6280000000000001E-2</v>
       </c>
       <c r="C3">
-        <v>0.90073999999999999</v>
+        <v>0.90146000000000004</v>
       </c>
       <c r="D3">
-        <v>0.95445000000000002</v>
+        <v>0.94779000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,13 +538,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.21063999999999999</v>
+        <v>0.20105999999999999</v>
       </c>
       <c r="C4">
-        <v>0.90602000000000005</v>
+        <v>0.90036000000000005</v>
       </c>
       <c r="D4">
-        <v>0.95321999999999996</v>
+        <v>0.95425000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,13 +552,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.33005000000000001</v>
+        <v>0.32612999999999998</v>
       </c>
       <c r="C5">
-        <v>0.94269999999999998</v>
+        <v>0.94055</v>
       </c>
       <c r="D5">
-        <v>0.97346999999999995</v>
+        <v>0.97560000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.91259000000000001</v>
+        <v>0.88209000000000004</v>
       </c>
       <c r="D6">
-        <v>0.96316000000000002</v>
+        <v>0.96763999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,13 +580,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>2.1659999999999999E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="C7">
-        <v>0.88236999999999999</v>
+        <v>0.87438000000000005</v>
       </c>
       <c r="D7">
-        <v>0.95579000000000003</v>
+        <v>0.96040000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -594,13 +594,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.34647</v>
+        <v>0.33789999999999998</v>
       </c>
       <c r="C8">
-        <v>0.79917000000000005</v>
+        <v>0.80693000000000004</v>
       </c>
       <c r="D8">
-        <v>0.95521</v>
+        <v>0.95831</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,13 +608,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.17655000000000001</v>
+        <v>0.16142999999999999</v>
       </c>
       <c r="C9">
-        <v>0.87787000000000004</v>
+        <v>0.87773999999999996</v>
       </c>
       <c r="D9">
-        <v>0.95265</v>
+        <v>0.95565</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -622,13 +622,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.39548</v>
+        <v>0.38966000000000001</v>
       </c>
       <c r="C10">
-        <v>0.86338999999999999</v>
+        <v>0.86460000000000004</v>
       </c>
       <c r="D10">
-        <v>0.95328999999999997</v>
+        <v>0.95050999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,13 +636,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.10351</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="C11">
-        <v>0.80179</v>
+        <v>0.80364999999999998</v>
       </c>
       <c r="D11">
-        <v>0.96562000000000003</v>
+        <v>0.96913000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.79917000000000005</v>
+        <v>0.80364999999999998</v>
       </c>
       <c r="D12">
-        <v>0.94854000000000005</v>
+        <v>0.94779000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,13 +664,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.39548</v>
+        <v>0.38966000000000001</v>
       </c>
       <c r="C13">
-        <v>0.94269999999999998</v>
+        <v>0.94055</v>
       </c>
       <c r="D13">
-        <v>0.97346999999999995</v>
+        <v>0.97560000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,13 +678,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.19619166666666671</v>
+        <v>0.18980749999999999</v>
       </c>
       <c r="C14" s="2">
-        <v>0.87345916666666668</v>
+        <v>0.87004333333333328</v>
       </c>
       <c r="D14" s="2">
-        <v>0.95811750000000007</v>
+        <v>0.95944833333333335</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,17 +692,18 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.19619166666666671</v>
+        <v>0.18980749999999999</v>
       </c>
       <c r="C15">
-        <v>0.87787000000000004</v>
+        <v>0.87438000000000005</v>
       </c>
       <c r="D15">
-        <v>0.95521</v>
+        <v>0.95831</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -710,14 +711,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" activeCellId="1" sqref="C14 D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" activeCellId="1" sqref="D14 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -737,13 +739,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.15901999999999999</v>
+        <v>0.13816000000000001</v>
       </c>
       <c r="C2">
-        <v>0.78841000000000006</v>
+        <v>0.78266000000000002</v>
       </c>
       <c r="D2">
-        <v>0.85223000000000004</v>
+        <v>0.85768</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.90817999999999999</v>
+        <v>0.90981999999999996</v>
       </c>
       <c r="D3">
-        <v>0.90578000000000003</v>
+        <v>0.89851999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.85673999999999995</v>
+        <v>0.80013999999999996</v>
       </c>
       <c r="D4">
-        <v>0.76490999999999998</v>
+        <v>0.70470999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,13 +781,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.25040000000000001</v>
+        <v>0.24221999999999999</v>
       </c>
       <c r="C5">
-        <v>0.96043999999999996</v>
+        <v>0.95806000000000002</v>
       </c>
       <c r="D5">
-        <v>0.92825999999999997</v>
+        <v>0.91954999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.84172999999999998</v>
+        <v>0.83333999999999997</v>
       </c>
       <c r="D6">
-        <v>0.80998000000000003</v>
+        <v>0.81903999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -810,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.58991000000000005</v>
+        <v>0.56569000000000003</v>
       </c>
       <c r="D7">
-        <v>0.39254</v>
+        <v>0.24831</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -824,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.66605000000000003</v>
+        <v>0.67168000000000005</v>
       </c>
       <c r="D8">
-        <v>0.61612999999999996</v>
+        <v>0.78776999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.11815000000000001</v>
+        <v>0.10535</v>
       </c>
       <c r="C9">
-        <v>0.80911</v>
+        <v>0.80164000000000002</v>
       </c>
       <c r="D9">
-        <v>0.86129999999999995</v>
+        <v>0.82813000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.26565</v>
+        <v>0.25814999999999999</v>
       </c>
       <c r="C10">
-        <v>0.79603999999999997</v>
+        <v>0.80406999999999995</v>
       </c>
       <c r="D10">
-        <v>0.85680999999999996</v>
+        <v>0.86163000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>3.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.63341000000000003</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="D11">
-        <v>0.63973999999999998</v>
+        <v>0.62522</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.58991000000000005</v>
+        <v>0.56569000000000003</v>
       </c>
       <c r="D12">
-        <v>0.39254</v>
+        <v>0.24831</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.26565</v>
+        <v>0.25814999999999999</v>
       </c>
       <c r="C13">
-        <v>0.96043999999999996</v>
+        <v>0.95806000000000002</v>
       </c>
       <c r="D13">
-        <v>0.92825999999999997</v>
+        <v>0.91954999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,13 +907,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>8.8241666666666663E-2</v>
+        <v>8.3502499999999993E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>0.78336416666666653</v>
+        <v>0.77587083333333329</v>
       </c>
       <c r="D14" s="2">
-        <v>0.74570666666666663</v>
+        <v>0.72653500000000004</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,241 +921,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>3.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.79603999999999997</v>
+        <v>0.80013999999999996</v>
       </c>
       <c r="D15">
-        <v>0.80998000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" activeCellId="1" sqref="C14 D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.59701000000000004</v>
-      </c>
-      <c r="C2">
-        <v>0.88858000000000004</v>
-      </c>
-      <c r="D2">
-        <v>0.85368999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.25079000000000001</v>
-      </c>
-      <c r="C3">
-        <v>0.84584999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.86400999999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.41308</v>
-      </c>
-      <c r="C4">
-        <v>0.88570000000000004</v>
-      </c>
-      <c r="D4">
-        <v>0.86722999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.55162</v>
-      </c>
-      <c r="C5">
-        <v>0.90688000000000002</v>
-      </c>
-      <c r="D5">
-        <v>0.89117999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.21870000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.83847000000000005</v>
-      </c>
-      <c r="D6">
-        <v>0.81918999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.22514000000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.84450999999999998</v>
-      </c>
-      <c r="D7">
-        <v>0.87426999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.44472</v>
-      </c>
-      <c r="C8">
-        <v>0.87829999999999997</v>
-      </c>
-      <c r="D8">
-        <v>0.87487000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.38181999999999999</v>
-      </c>
-      <c r="C9">
-        <v>0.82962000000000002</v>
-      </c>
-      <c r="D9">
-        <v>0.81920999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>0.47536</v>
-      </c>
-      <c r="C10">
-        <v>0.82013999999999998</v>
-      </c>
-      <c r="D10">
-        <v>0.83506000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>0.32069999999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.88514000000000004</v>
-      </c>
-      <c r="D11">
-        <v>0.93467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>0.21870000000000001</v>
-      </c>
-      <c r="C12">
-        <v>0.82013999999999998</v>
-      </c>
-      <c r="D12">
-        <v>0.81918999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.59701000000000004</v>
-      </c>
-      <c r="C13">
-        <v>0.90688000000000002</v>
-      </c>
-      <c r="D13">
-        <v>0.93467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0.39122083333333341</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.86251750000000005</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.8656033333333335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>0.39122083333333341</v>
-      </c>
-      <c r="C15">
-        <v>0.86251750000000005</v>
-      </c>
-      <c r="D15">
-        <v>0.8656033333333335</v>
+        <v>0.81903999999999999</v>
       </c>
     </row>
   </sheetData>
